--- a/config_11.23/shoping_config_vivo.xlsx
+++ b/config_11.23/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6074" uniqueCount="2165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6090" uniqueCount="2175">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8159,86 +8159,6 @@
     <t>{type="permission_class",class_value = "another_day_gift4" }</t>
   </si>
   <si>
-    <t>绝地反击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘海域V0-V2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100-500万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,1,0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1010000,1100000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘海域V3-V5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"500-1000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{5100000,5400000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘海域V6-V8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1000-2000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10200000,10800000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10200000,10800000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘海域V9-V12</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000-5000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{20400000,21600000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>海底宝藏V0-V2</t>
   </si>
   <si>
@@ -8268,25 +8188,172 @@
     </r>
   </si>
   <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏V3-V5</t>
+  </si>
+  <si>
+    <t>海底宝藏V6-V8</t>
+  </si>
+  <si>
+    <t>海底宝藏V9-V12</t>
+  </si>
+  <si>
+    <t>藏宝海湾V0-V2</t>
+  </si>
+  <si>
+    <t>藏宝海湾V3-V5</t>
+  </si>
+  <si>
+    <t>藏宝海湾V6-V8</t>
+  </si>
+  <si>
+    <t>藏宝海湾V9-V12</t>
+  </si>
+  <si>
+    <t>深海沉船V0-V2</t>
+  </si>
+  <si>
+    <t>深海沉船V3-V5</t>
+  </si>
+  <si>
+    <t>深海沉船V6-V8</t>
+  </si>
+  <si>
+    <t>深海沉船V9-V12</t>
+  </si>
+  <si>
+    <t>"60万金币","6万小游戏币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万小游戏币",</t>
+  </si>
+  <si>
+    <t>"180万金币","18万小游戏币",</t>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域V0-V2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100-500万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1,0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1,0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>{1010000,1100000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,5000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>绝地反击</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>海底宝藏V3-V5</t>
+    <t>神秘海域V3-V5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500-1000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5100000,5400000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,10000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域V6-V8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1000-2000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10200000,10800000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,20000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域V9-V12</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000-5000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000-5000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>海底宝藏V6-V8</t>
-  </si>
-  <si>
-    <t>"2000-5000万金币",</t>
+    <t>{20400000,21600000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,50000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -8294,18 +8361,35 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>{5100000,5400000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10200000,10800000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,20000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,20000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>{20400000,21600000,100}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>海底宝藏V9-V12</t>
+    <t>20000000,50000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"3000-7500万金币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
+    <t>gift_bag</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -8313,63 +8397,42 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>藏宝海湾V0-V2</t>
+    <t>30000000,75000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{10200000,10800000,100}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>藏宝海湾V3-V5</t>
-  </si>
-  <si>
-    <t>绝地反击</t>
+    <t>{20400000,21600000,100}</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏宝海湾V6-V8</t>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝地反击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏宝海湾V9-V12</t>
   </si>
   <si>
     <t>"3000-7500万金币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>gift_bag</t>
+    <t>{30600000,32400000,100}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>深海沉船V0-V2</t>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
+    <t>20000000,50000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海沉船V3-V5</t>
-  </si>
-  <si>
-    <t>{20400000,21600000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海沉船V6-V8</t>
   </si>
   <si>
     <t>"5000-12000万金币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>{51000000,54000000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,120000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"5000-12000万金币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8378,19 +8441,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>深海沉船V9-V12</t>
-  </si>
-  <si>
-    <t>"60万金币","6万小游戏币",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万小游戏币",</t>
-  </si>
-  <si>
-    <t>"180万金币","18万小游戏币",</t>
+    <t>50000000,120000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11410,10 +11462,10 @@
   <dimension ref="A1:AO772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W656" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W749" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="A671:XFD682"/>
+      <selection pane="bottomRight" activeCell="A757" sqref="A757:XFD772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -54733,7 +54785,7 @@
         <v>1547</v>
       </c>
       <c r="K671" s="89" t="s">
-        <v>2161</v>
+        <v>2125</v>
       </c>
       <c r="M671" s="89">
         <v>-31</v>
@@ -54751,7 +54803,7 @@
         <v>600</v>
       </c>
       <c r="R671" s="89" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="S671" s="74" t="s">
         <v>1569</v>
@@ -54804,7 +54856,7 @@
         <v>1547</v>
       </c>
       <c r="K672" s="89" t="s">
-        <v>2163</v>
+        <v>2127</v>
       </c>
       <c r="M672" s="89">
         <v>-31</v>
@@ -54822,7 +54874,7 @@
         <v>1000</v>
       </c>
       <c r="R672" s="89" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="S672" s="74" t="s">
         <v>1571</v>
@@ -54875,7 +54927,7 @@
         <v>1547</v>
       </c>
       <c r="K673" s="89" t="s">
-        <v>2164</v>
+        <v>2128</v>
       </c>
       <c r="M673" s="89">
         <v>-31</v>
@@ -54893,7 +54945,7 @@
         <v>1800</v>
       </c>
       <c r="R673" s="89" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="S673" s="74" t="s">
         <v>1573</v>
@@ -54964,7 +55016,7 @@
         <v>1800</v>
       </c>
       <c r="R674" s="89" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="S674" s="74" t="s">
         <v>1556</v>
@@ -55035,7 +55087,7 @@
         <v>3000</v>
       </c>
       <c r="R675" s="89" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="S675" s="74" t="s">
         <v>1558</v>
@@ -55106,7 +55158,7 @@
         <v>4800</v>
       </c>
       <c r="R676" s="89" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="S676" s="74" t="s">
         <v>1560</v>
@@ -55177,7 +55229,7 @@
         <v>4800</v>
       </c>
       <c r="R677" s="89" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="S677" s="74" t="s">
         <v>1560</v>
@@ -55248,7 +55300,7 @@
         <v>9800</v>
       </c>
       <c r="R678" s="89" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="S678" s="74" t="s">
         <v>1563</v>
@@ -55319,7 +55371,7 @@
         <v>19800</v>
       </c>
       <c r="R679" s="89" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="S679" s="74" t="s">
         <v>1565</v>
@@ -55390,7 +55442,7 @@
         <v>9800</v>
       </c>
       <c r="R680" s="89" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="S680" s="74" t="s">
         <v>1563</v>
@@ -55461,7 +55513,7 @@
         <v>19800</v>
       </c>
       <c r="R681" s="89" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="S681" s="74" t="s">
         <v>1565</v>
@@ -55532,7 +55584,7 @@
         <v>49800</v>
       </c>
       <c r="R682" s="89" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="S682" s="74" t="s">
         <v>1567</v>
@@ -60642,13 +60694,13 @@
         <v>1</v>
       </c>
       <c r="G757" s="30" t="s">
-        <v>2111</v>
+        <v>2129</v>
       </c>
       <c r="J757" s="30" t="s">
-        <v>2112</v>
+        <v>2130</v>
       </c>
       <c r="K757" s="30" t="s">
-        <v>2113</v>
+        <v>2131</v>
       </c>
       <c r="M757" s="30">
         <v>-31</v>
@@ -60660,14 +60712,14 @@
         <v>0</v>
       </c>
       <c r="P757" s="30" t="s">
-        <v>2114</v>
+        <v>1957</v>
       </c>
       <c r="Q757" s="30">
         <v>1000</v>
       </c>
       <c r="S757" s="54"/>
       <c r="X757" s="30" t="s">
-        <v>2115</v>
+        <v>2133</v>
       </c>
       <c r="Y757" s="30">
         <v>99999999</v>
@@ -60682,10 +60734,13 @@
         <v>92</v>
       </c>
       <c r="AC757" s="30" t="s">
-        <v>2116</v>
+        <v>2134</v>
       </c>
       <c r="AD757" s="30" t="s">
-        <v>2117</v>
+        <v>2135</v>
+      </c>
+      <c r="AE757" s="72" t="s">
+        <v>2136</v>
       </c>
       <c r="AI757" s="30">
         <v>1</v>
@@ -60711,13 +60766,13 @@
         <v>1</v>
       </c>
       <c r="G758" s="30" t="s">
-        <v>2111</v>
+        <v>2137</v>
       </c>
       <c r="J758" s="30" t="s">
-        <v>2118</v>
+        <v>2138</v>
       </c>
       <c r="K758" s="30" t="s">
-        <v>2119</v>
+        <v>2139</v>
       </c>
       <c r="M758" s="30">
         <v>-31</v>
@@ -60729,14 +60784,14 @@
         <v>0</v>
       </c>
       <c r="P758" s="30" t="s">
-        <v>2114</v>
+        <v>1957</v>
       </c>
       <c r="Q758" s="30">
         <v>5000</v>
       </c>
       <c r="S758" s="54"/>
       <c r="X758" s="30" t="s">
-        <v>2115</v>
+        <v>2132</v>
       </c>
       <c r="Y758" s="30">
         <v>99999999</v>
@@ -60751,10 +60806,13 @@
         <v>93</v>
       </c>
       <c r="AC758" s="30" t="s">
-        <v>2116</v>
+        <v>2140</v>
       </c>
       <c r="AD758" s="30" t="s">
-        <v>2120</v>
+        <v>2141</v>
+      </c>
+      <c r="AE758" s="72" t="s">
+        <v>2142</v>
       </c>
       <c r="AI758" s="30">
         <v>1</v>
@@ -60780,13 +60838,13 @@
         <v>1</v>
       </c>
       <c r="G759" s="30" t="s">
-        <v>2111</v>
+        <v>2129</v>
       </c>
       <c r="J759" s="30" t="s">
-        <v>2121</v>
+        <v>2143</v>
       </c>
       <c r="K759" s="30" t="s">
-        <v>2122</v>
+        <v>2144</v>
       </c>
       <c r="M759" s="30">
         <v>-31</v>
@@ -60798,14 +60856,14 @@
         <v>0</v>
       </c>
       <c r="P759" s="30" t="s">
-        <v>2114</v>
+        <v>1957</v>
       </c>
       <c r="Q759" s="30">
         <v>9800</v>
       </c>
       <c r="S759" s="54"/>
       <c r="X759" s="30" t="s">
-        <v>2115</v>
+        <v>2132</v>
       </c>
       <c r="Y759" s="30">
         <v>99999999</v>
@@ -60820,10 +60878,13 @@
         <v>94</v>
       </c>
       <c r="AC759" s="30" t="s">
-        <v>2116</v>
+        <v>2134</v>
       </c>
       <c r="AD759" s="30" t="s">
-        <v>2124</v>
+        <v>2145</v>
+      </c>
+      <c r="AE759" s="72" t="s">
+        <v>2146</v>
       </c>
       <c r="AI759" s="30">
         <v>1</v>
@@ -60849,13 +60910,13 @@
         <v>1</v>
       </c>
       <c r="G760" s="30" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="J760" s="30" t="s">
-        <v>2125</v>
+        <v>2147</v>
       </c>
       <c r="K760" s="30" t="s">
-        <v>2126</v>
+        <v>2149</v>
       </c>
       <c r="M760" s="30">
         <v>-31</v>
@@ -60867,14 +60928,14 @@
         <v>0</v>
       </c>
       <c r="P760" s="30" t="s">
-        <v>2114</v>
+        <v>2150</v>
       </c>
       <c r="Q760" s="30">
         <v>19800</v>
       </c>
       <c r="S760" s="54"/>
       <c r="X760" s="30" t="s">
-        <v>2115</v>
+        <v>2132</v>
       </c>
       <c r="Y760" s="30">
         <v>99999999</v>
@@ -60889,10 +60950,13 @@
         <v>95</v>
       </c>
       <c r="AC760" s="30" t="s">
-        <v>2116</v>
+        <v>2134</v>
       </c>
       <c r="AD760" s="30" t="s">
-        <v>2127</v>
+        <v>2151</v>
+      </c>
+      <c r="AE760" s="72" t="s">
+        <v>2152</v>
       </c>
       <c r="AI760" s="30">
         <v>1</v>
@@ -60918,13 +60982,13 @@
         <v>1</v>
       </c>
       <c r="G761" s="30" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J761" s="30" t="s">
         <v>2111</v>
       </c>
-      <c r="J761" s="30" t="s">
-        <v>2128</v>
-      </c>
       <c r="K761" s="30" t="s">
-        <v>2119</v>
+        <v>2139</v>
       </c>
       <c r="M761" s="30">
         <v>-31</v>
@@ -60936,14 +61000,14 @@
         <v>0</v>
       </c>
       <c r="P761" s="30" t="s">
-        <v>2114</v>
+        <v>1957</v>
       </c>
       <c r="Q761" s="30">
         <v>5000</v>
       </c>
       <c r="S761" s="54"/>
       <c r="X761" s="30" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="Y761" s="30">
         <v>99999999</v>
@@ -60958,10 +61022,13 @@
         <v>92</v>
       </c>
       <c r="AC761" s="30" t="s">
-        <v>2130</v>
+        <v>2153</v>
       </c>
       <c r="AD761" s="30" t="s">
-        <v>2120</v>
+        <v>2154</v>
+      </c>
+      <c r="AE761" s="72" t="s">
+        <v>2142</v>
       </c>
       <c r="AI761" s="30">
         <v>1</v>
@@ -60987,13 +61054,13 @@
         <v>1</v>
       </c>
       <c r="G762" s="30" t="s">
-        <v>2131</v>
+        <v>2113</v>
       </c>
       <c r="J762" s="30" t="s">
-        <v>2132</v>
+        <v>2114</v>
       </c>
       <c r="K762" s="30" t="s">
-        <v>2122</v>
+        <v>2144</v>
       </c>
       <c r="M762" s="30">
         <v>-31</v>
@@ -61005,14 +61072,14 @@
         <v>0</v>
       </c>
       <c r="P762" s="30" t="s">
-        <v>2133</v>
+        <v>1957</v>
       </c>
       <c r="Q762" s="30">
         <v>9800</v>
       </c>
       <c r="S762" s="54"/>
       <c r="X762" s="30" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="Y762" s="30">
         <v>99999999</v>
@@ -61027,10 +61094,13 @@
         <v>93</v>
       </c>
       <c r="AC762" s="30" t="s">
-        <v>2116</v>
+        <v>2140</v>
       </c>
       <c r="AD762" s="30" t="s">
-        <v>2124</v>
+        <v>2155</v>
+      </c>
+      <c r="AE762" s="72" t="s">
+        <v>2157</v>
       </c>
       <c r="AI762" s="30">
         <v>1</v>
@@ -61056,13 +61126,13 @@
         <v>1</v>
       </c>
       <c r="G763" s="30" t="s">
-        <v>2131</v>
+        <v>2113</v>
       </c>
       <c r="J763" s="30" t="s">
-        <v>2134</v>
+        <v>2115</v>
       </c>
       <c r="K763" s="30" t="s">
-        <v>2126</v>
+        <v>2148</v>
       </c>
       <c r="M763" s="30">
         <v>-31</v>
@@ -61074,7 +61144,7 @@
         <v>0</v>
       </c>
       <c r="P763" s="30" t="s">
-        <v>2114</v>
+        <v>1957</v>
       </c>
       <c r="Q763" s="30">
         <v>19800</v>
@@ -61082,7 +61152,7 @@
       <c r="R763" s="90"/>
       <c r="S763" s="54"/>
       <c r="X763" s="30" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="Y763" s="30">
         <v>99999999</v>
@@ -61097,10 +61167,13 @@
         <v>94</v>
       </c>
       <c r="AC763" s="30" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="AD763" s="30" t="s">
-        <v>2127</v>
+        <v>2151</v>
+      </c>
+      <c r="AE763" s="72" t="s">
+        <v>2159</v>
       </c>
       <c r="AI763" s="30">
         <v>1</v>
@@ -61126,13 +61199,13 @@
         <v>1</v>
       </c>
       <c r="G764" s="30" t="s">
-        <v>2111</v>
+        <v>2129</v>
       </c>
       <c r="J764" s="30" t="s">
-        <v>2138</v>
+        <v>2116</v>
       </c>
       <c r="K764" s="30" t="s">
-        <v>2139</v>
+        <v>2160</v>
       </c>
       <c r="M764" s="30">
         <v>-31</v>
@@ -61144,7 +61217,7 @@
         <v>0</v>
       </c>
       <c r="P764" s="30" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="Q764" s="30">
         <v>29800</v>
@@ -61152,7 +61225,7 @@
       <c r="R764" s="90"/>
       <c r="S764" s="54"/>
       <c r="X764" s="30" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="Y764" s="30">
         <v>99999999</v>
@@ -61167,10 +61240,13 @@
         <v>95</v>
       </c>
       <c r="AC764" s="30" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="AD764" s="30" t="s">
-        <v>2141</v>
+        <v>2162</v>
+      </c>
+      <c r="AE764" s="72" t="s">
+        <v>2163</v>
       </c>
       <c r="AI764" s="30">
         <v>1</v>
@@ -61196,13 +61272,13 @@
         <v>1</v>
       </c>
       <c r="G765" s="30" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="J765" s="30" t="s">
-        <v>2142</v>
+        <v>2117</v>
       </c>
       <c r="K765" s="30" t="s">
-        <v>2122</v>
+        <v>2144</v>
       </c>
       <c r="M765" s="30">
         <v>-31</v>
@@ -61214,14 +61290,14 @@
         <v>0</v>
       </c>
       <c r="P765" s="30" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="Q765" s="30">
         <v>9800</v>
       </c>
       <c r="S765" s="54"/>
       <c r="X765" s="30" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="Y765" s="30">
         <v>99999999</v>
@@ -61236,10 +61312,13 @@
         <v>92</v>
       </c>
       <c r="AC765" s="30" t="s">
-        <v>2116</v>
+        <v>2134</v>
       </c>
       <c r="AD765" s="30" t="s">
-        <v>2143</v>
+        <v>2155</v>
+      </c>
+      <c r="AE765" s="72" t="s">
+        <v>2156</v>
       </c>
       <c r="AI765" s="30">
         <v>1</v>
@@ -61265,13 +61344,13 @@
         <v>1</v>
       </c>
       <c r="G766" s="30" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="J766" s="30" t="s">
+        <v>2118</v>
+      </c>
+      <c r="K766" s="30" t="s">
         <v>2144</v>
-      </c>
-      <c r="K766" s="30" t="s">
-        <v>2122</v>
       </c>
       <c r="M766" s="30">
         <v>-31</v>
@@ -61283,14 +61362,14 @@
         <v>0</v>
       </c>
       <c r="P766" s="30" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="Q766" s="30">
         <v>9800</v>
       </c>
       <c r="S766" s="54"/>
       <c r="X766" s="30" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="Y766" s="30">
         <v>99999999</v>
@@ -61305,10 +61384,13 @@
         <v>93</v>
       </c>
       <c r="AC766" s="30" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="AD766" s="30" t="s">
-        <v>2123</v>
+        <v>2164</v>
+      </c>
+      <c r="AE766" s="72" t="s">
+        <v>2156</v>
       </c>
       <c r="AI766" s="30">
         <v>1</v>
@@ -61334,13 +61416,13 @@
         <v>1</v>
       </c>
       <c r="G767" s="30" t="s">
-        <v>2145</v>
+        <v>2113</v>
       </c>
       <c r="J767" s="30" t="s">
-        <v>2146</v>
+        <v>2119</v>
       </c>
       <c r="K767" s="30" t="s">
-        <v>2126</v>
+        <v>2148</v>
       </c>
       <c r="M767" s="30">
         <v>-31</v>
@@ -61352,14 +61434,14 @@
         <v>0</v>
       </c>
       <c r="P767" s="30" t="s">
-        <v>2147</v>
+        <v>1957</v>
       </c>
       <c r="Q767" s="30">
         <v>19800</v>
       </c>
       <c r="S767" s="54"/>
       <c r="X767" s="30" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="Y767" s="30">
         <v>99999999</v>
@@ -61374,10 +61456,13 @@
         <v>94</v>
       </c>
       <c r="AC767" s="30" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="AD767" s="30" t="s">
-        <v>2137</v>
+        <v>2165</v>
+      </c>
+      <c r="AE767" s="72" t="s">
+        <v>2159</v>
       </c>
       <c r="AI767" s="30">
         <v>1</v>
@@ -61403,13 +61488,13 @@
         <v>1</v>
       </c>
       <c r="G768" s="30" t="s">
-        <v>2148</v>
+        <v>2113</v>
       </c>
       <c r="J768" s="30" t="s">
-        <v>2149</v>
+        <v>2120</v>
       </c>
       <c r="K768" s="30" t="s">
-        <v>2150</v>
+        <v>2166</v>
       </c>
       <c r="M768" s="30">
         <v>-31</v>
@@ -61421,14 +61506,14 @@
         <v>0</v>
       </c>
       <c r="P768" s="30" t="s">
-        <v>2151</v>
+        <v>2161</v>
       </c>
       <c r="Q768" s="30">
         <v>29800</v>
       </c>
       <c r="S768" s="54"/>
       <c r="X768" s="30" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="Y768" s="30">
         <v>99999999</v>
@@ -61443,10 +61528,13 @@
         <v>95</v>
       </c>
       <c r="AC768" s="30" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="AD768" s="30" t="s">
-        <v>2141</v>
+        <v>2167</v>
+      </c>
+      <c r="AE768" s="72" t="s">
+        <v>2163</v>
       </c>
       <c r="AI768" s="30">
         <v>1</v>
@@ -61472,13 +61560,13 @@
         <v>1</v>
       </c>
       <c r="G769" s="30" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J769" s="30" t="s">
+        <v>2121</v>
+      </c>
+      <c r="K769" s="30" t="s">
         <v>2148</v>
-      </c>
-      <c r="J769" s="30" t="s">
-        <v>2152</v>
-      </c>
-      <c r="K769" s="30" t="s">
-        <v>2135</v>
       </c>
       <c r="M769" s="30">
         <v>-31</v>
@@ -61490,14 +61578,14 @@
         <v>0</v>
       </c>
       <c r="P769" s="30" t="s">
-        <v>2151</v>
+        <v>1957</v>
       </c>
       <c r="Q769" s="30">
         <v>19800</v>
       </c>
       <c r="S769" s="54"/>
       <c r="X769" s="30" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="Y769" s="30">
         <v>99999999</v>
@@ -61512,10 +61600,13 @@
         <v>92</v>
       </c>
       <c r="AC769" s="30" t="s">
-        <v>2153</v>
+        <v>2134</v>
       </c>
       <c r="AD769" s="30" t="s">
-        <v>2137</v>
+        <v>2151</v>
+      </c>
+      <c r="AE769" s="72" t="s">
+        <v>2168</v>
       </c>
       <c r="AI769" s="30">
         <v>1</v>
@@ -61541,13 +61632,13 @@
         <v>1</v>
       </c>
       <c r="G770" s="30" t="s">
-        <v>2148</v>
+        <v>2113</v>
       </c>
       <c r="J770" s="30" t="s">
-        <v>2154</v>
+        <v>2122</v>
       </c>
       <c r="K770" s="30" t="s">
-        <v>2135</v>
+        <v>2149</v>
       </c>
       <c r="M770" s="30">
         <v>-31</v>
@@ -61559,14 +61650,14 @@
         <v>0</v>
       </c>
       <c r="P770" s="30" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="Q770" s="30">
         <v>19800</v>
       </c>
       <c r="S770" s="54"/>
       <c r="X770" s="30" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="Y770" s="30">
         <v>99999999</v>
@@ -61581,10 +61672,13 @@
         <v>93</v>
       </c>
       <c r="AC770" s="30" t="s">
-        <v>2136</v>
+        <v>2153</v>
       </c>
       <c r="AD770" s="30" t="s">
-        <v>2155</v>
+        <v>2158</v>
+      </c>
+      <c r="AE770" s="72" t="s">
+        <v>2168</v>
       </c>
       <c r="AI770" s="30">
         <v>1</v>
@@ -61610,13 +61704,13 @@
         <v>1</v>
       </c>
       <c r="G771" s="30" t="s">
-        <v>2148</v>
+        <v>2129</v>
       </c>
       <c r="J771" s="30" t="s">
-        <v>2156</v>
+        <v>2123</v>
       </c>
       <c r="K771" s="30" t="s">
-        <v>2158</v>
+        <v>2169</v>
       </c>
       <c r="M771" s="30">
         <v>-31</v>
@@ -61628,14 +61722,14 @@
         <v>0</v>
       </c>
       <c r="P771" s="30" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="Q771" s="30">
         <v>49800</v>
       </c>
       <c r="S771" s="54"/>
       <c r="X771" s="30" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="Y771" s="30">
         <v>99999999</v>
@@ -61653,7 +61747,10 @@
         <v>2140</v>
       </c>
       <c r="AD771" s="30" t="s">
-        <v>2159</v>
+        <v>2170</v>
+      </c>
+      <c r="AE771" s="72" t="s">
+        <v>2171</v>
       </c>
       <c r="AI771" s="30">
         <v>1</v>
@@ -61679,13 +61776,13 @@
         <v>1</v>
       </c>
       <c r="G772" s="30" t="s">
-        <v>2148</v>
+        <v>2129</v>
       </c>
       <c r="J772" s="30" t="s">
-        <v>2160</v>
+        <v>2124</v>
       </c>
       <c r="K772" s="30" t="s">
-        <v>2157</v>
+        <v>2172</v>
       </c>
       <c r="M772" s="30">
         <v>-31</v>
@@ -61697,14 +61794,14 @@
         <v>0</v>
       </c>
       <c r="P772" s="30" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="Q772" s="30">
         <v>49800</v>
       </c>
       <c r="S772" s="54"/>
       <c r="X772" s="30" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
       <c r="Y772" s="30">
         <v>99999999</v>
@@ -61722,7 +61819,10 @@
         <v>2153</v>
       </c>
       <c r="AD772" s="30" t="s">
-        <v>2159</v>
+        <v>2173</v>
+      </c>
+      <c r="AE772" s="72" t="s">
+        <v>2174</v>
       </c>
       <c r="AI772" s="30">
         <v>1</v>
